--- a/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.636</v>
+        <v>57.204</v>
       </c>
       <c r="D2" t="n">
-        <v>90.636</v>
+        <v>57.204</v>
       </c>
       <c r="E2" t="n">
-        <v>1.89907</v>
+        <v>2.98872616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07724</v>
+        <v>0.118009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07724</v>
+        <v>0.118009</v>
       </c>
       <c r="H2" t="n">
-        <v>6.89944</v>
+        <v>6.67244584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>6.207047516956472</v>
       </c>
       <c r="J2" t="n">
-        <v>12.22111</v>
+        <v>6.207047516956472</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3197360522861278</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01547734405374242</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01547734405374242</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4949738000287735</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>57.204</v>
+        <v>90.636</v>
       </c>
       <c r="D3" t="n">
-        <v>57.204</v>
+        <v>90.636</v>
       </c>
       <c r="E3" t="n">
-        <v>2.98873</v>
+        <v>1.89906912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11801</v>
+        <v>0.07723984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11801</v>
+        <v>0.07723984</v>
       </c>
       <c r="H3" t="n">
-        <v>6.67245</v>
+        <v>6.89944312</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.2333484225397</v>
       </c>
       <c r="J3" t="n">
-        <v>6.20084</v>
+        <v>12.2333484225397</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2605441289568686</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01118271574517007</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01118271574517007</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6730569641552351</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>61.476</v>
       </c>
       <c r="E4" t="n">
-        <v>2.85222</v>
+        <v>2.85221546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17291</v>
+        <v>0.17291004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08646</v>
+        <v>0.08645518000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58612</v>
+        <v>2.58611926</v>
       </c>
       <c r="I4" t="n">
+        <v>5.946698449130389</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.89505816789625</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5518735913410133</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03579685580843574</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0178981127789971</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3873361173245021</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.94075</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>95.57599999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81314</v>
+        <v>1.81313864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1161</v>
+        <v>0.11610202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05805</v>
+        <v>0.05805088</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77143</v>
+        <v>2.77142636</v>
       </c>
       <c r="I5" t="n">
+        <v>8.241708045241959</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.91943037805436</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2965792619205751</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02113498621253413</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0105675353243442</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3576329599469703</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.233459999999999</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.348</v>
+        <v>15.744</v>
       </c>
       <c r="D6" t="n">
-        <v>93.38200000000001</v>
+        <v>62.924</v>
       </c>
       <c r="E6" t="n">
-        <v>1.85776</v>
+        <v>2.84737828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1595</v>
+        <v>0.22580032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03988</v>
+        <v>0.05645006</v>
       </c>
       <c r="H6" t="n">
-        <v>0.98177</v>
+        <v>0.8657871399999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.781939996917</v>
       </c>
       <c r="J6" t="n">
-        <v>5.10988</v>
+        <v>15.11380422515498</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7046242549785309</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06003703824657276</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01500930852775579</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2366686844066573</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.744</v>
+        <v>25.348</v>
       </c>
       <c r="D7" t="n">
-        <v>62.924</v>
+        <v>93.38200000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2.84738</v>
+        <v>1.85776186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2258</v>
+        <v>0.15950234</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05645</v>
+        <v>0.03987556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8657899999999999</v>
+        <v>0.98176622</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.114999750233599</v>
       </c>
       <c r="J7" t="n">
-        <v>3.77816</v>
+        <v>15.04102859122887</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3053325490125699</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.03645538373863952</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.009114106195886672</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1766456612146574</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>57.744</v>
       </c>
       <c r="E8" t="n">
-        <v>3.10425</v>
+        <v>3.10425284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25773</v>
+        <v>0.25772888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04295</v>
+        <v>0.04295486</v>
       </c>
       <c r="H8" t="n">
-        <v>0.40571</v>
+        <v>0.40571476</v>
       </c>
       <c r="I8" t="n">
+        <v>2.463732118535578</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.58904192497154</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.749643941158311</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07542841647263143</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01257127357187161</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1366665586595862</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.46127</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>88.34999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9789</v>
+        <v>1.97890148</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17105</v>
+        <v>0.17104938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02851</v>
+        <v>0.0285082</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48524</v>
+        <v>0.48524196</v>
       </c>
       <c r="I9" t="n">
+        <v>4.664484411985886</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.32312435710624</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3705008976022294</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04396027155017505</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007326587974131299</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1230371086753129</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.65982</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.262</v>
+        <v>7.274</v>
       </c>
       <c r="D10" t="n">
-        <v>82.38</v>
+        <v>58.048</v>
       </c>
       <c r="E10" t="n">
-        <v>2.12173</v>
+        <v>3.0894319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15904</v>
+        <v>0.25027196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01988</v>
+        <v>0.0312839</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25713</v>
+        <v>0.2274484</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.802615556820528</v>
       </c>
       <c r="J10" t="n">
-        <v>3.46256</v>
+        <v>14.33515571519045</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7659593082350614</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08033628923278562</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01004224933635224</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09301096028806183</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.274</v>
+        <v>13.262</v>
       </c>
       <c r="D11" t="n">
-        <v>58.048</v>
+        <v>82.38</v>
       </c>
       <c r="E11" t="n">
-        <v>3.08943</v>
+        <v>2.12173136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.25027</v>
+        <v>0.15903728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03128</v>
+        <v>0.01987986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22745</v>
+        <v>0.25712716</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.46603271270354</v>
       </c>
       <c r="J11" t="n">
-        <v>1.80081</v>
+        <v>15.29429406222214</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3900902000225816</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.04368976143113417</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.005461033267532637</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07773990213978794</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>59.748</v>
       </c>
       <c r="E12" t="n">
-        <v>3.00726</v>
+        <v>3.0072619</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2212</v>
+        <v>0.22120214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02212</v>
+        <v>0.02212039999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13371</v>
+        <v>0.1337144</v>
       </c>
       <c r="I12" t="n">
+        <v>1.510131449241415</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.06567107333024</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.7547356655512579</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.07347401461515313</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.007347343025820841</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06095312508111712</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.50862</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>75.96599999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.30525</v>
+        <v>2.30524572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14058</v>
+        <v>0.14057886</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01406</v>
+        <v>0.01405778</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15203</v>
+        <v>0.15203048</v>
       </c>
       <c r="I13" t="n">
+        <v>3.081817515427673</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.61602203749026</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.435447527956801</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.04038502923700002</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.004038513495595653</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05047845221523429</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.07873</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal/15x15/new_cu_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.118009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118009</v>
+        <v>6.672440720000001</v>
       </c>
       <c r="H2" t="n">
-        <v>6.67244584</v>
+        <v>381.69752676</v>
       </c>
       <c r="I2" t="n">
         <v>6.207047516956472</v>
@@ -548,10 +548,10 @@
         <v>0.01547734405374242</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01547734405374242</v>
+        <v>0.494969513974153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4949738000287735</v>
+        <v>50.73986853472349</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.07723984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07723984</v>
+        <v>6.899435</v>
       </c>
       <c r="H3" t="n">
-        <v>6.89944312</v>
+        <v>627.70538312</v>
       </c>
       <c r="I3" t="n">
         <v>12.2333484225397</v>
@@ -595,10 +595,10 @@
         <v>0.01118271574517007</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01118271574517007</v>
+        <v>0.6730628938948248</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6730569641552351</v>
+        <v>118.6616133725753</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.17291004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08645518000000001</v>
+        <v>2.58612274</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58611926</v>
+        <v>80.25798019999999</v>
       </c>
       <c r="I4" t="n">
         <v>5.946698449130389</v>
@@ -642,10 +642,10 @@
         <v>0.03579685580843574</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0178981127789971</v>
+        <v>0.3873316922172573</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3873361173245021</v>
+        <v>22.46647487508017</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.11610202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05805088</v>
+        <v>2.77142266</v>
       </c>
       <c r="H5" t="n">
-        <v>2.77142636</v>
+        <v>136.06397188</v>
       </c>
       <c r="I5" t="n">
         <v>8.241708045241959</v>
@@ -689,10 +689,10 @@
         <v>0.02113498621253413</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0105675353243442</v>
+        <v>0.3576325808935163</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3576329599469703</v>
+        <v>32.5564593688892</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.22580032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05645006</v>
+        <v>0.86578674</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8657871399999999</v>
+        <v>14.07402488</v>
       </c>
       <c r="I6" t="n">
         <v>3.781939996917</v>
@@ -736,10 +736,10 @@
         <v>0.06003703824657276</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01500930852775579</v>
+        <v>0.2366681157342128</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2366686844066573</v>
+        <v>6.41590886572101</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.15950234</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03987556</v>
+        <v>0.9817642000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.98176622</v>
+        <v>25.13027774</v>
       </c>
       <c r="I7" t="n">
         <v>5.114999750233599</v>
@@ -783,10 +783,10 @@
         <v>0.03645538373863952</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009114106195886672</v>
+        <v>0.1766459389475266</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1766456612146574</v>
+        <v>7.867535293885537</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.25772888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04295486</v>
+        <v>0.40571482</v>
       </c>
       <c r="H8" t="n">
-        <v>0.40571476</v>
+        <v>4.064102399999999</v>
       </c>
       <c r="I8" t="n">
         <v>2.463732118535578</v>
@@ -830,10 +830,10 @@
         <v>0.07542841647263143</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01257127357187161</v>
+        <v>0.1366649482916183</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1366665586595862</v>
+        <v>2.15126537033222</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.17104938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0285082</v>
+        <v>0.485242</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48524196</v>
+        <v>8.82604478</v>
       </c>
       <c r="I9" t="n">
         <v>4.664484411985886</v>
@@ -877,10 +877,10 @@
         <v>0.04396027155017505</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007326587974131299</v>
+        <v>0.1230362935864006</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1230371086753129</v>
+        <v>4.355758105270057</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.25027196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0312839</v>
+        <v>0.22744752</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2274484</v>
+        <v>1.74933596</v>
       </c>
       <c r="I10" t="n">
         <v>1.802615556820528</v>
@@ -924,10 +924,10 @@
         <v>0.08033628923278562</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01004224933635224</v>
+        <v>0.09301120797337778</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09301096028806183</v>
+        <v>1.044050193472449</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.15903728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01987986</v>
+        <v>0.25713032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25712716</v>
+        <v>3.54976268</v>
       </c>
       <c r="I11" t="n">
         <v>3.46603271270354</v>
@@ -971,10 +971,10 @@
         <v>0.04368976143113417</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005461033267532637</v>
+        <v>0.07773953739795017</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07773990213978794</v>
+        <v>1.991305742254033</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.22120214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02212039999999999</v>
+        <v>0.13371546</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1337144</v>
+        <v>0.8568562200000001</v>
       </c>
       <c r="I12" t="n">
         <v>1.510131449241415</v>
@@ -1018,10 +1018,10 @@
         <v>0.07347401461515313</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007347343025820841</v>
+        <v>0.06095304612940445</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06095312508111712</v>
+        <v>0.5810678937613333</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.14057886</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01405778</v>
+        <v>0.15202994</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15203048</v>
+        <v>1.7709933</v>
       </c>
       <c r="I13" t="n">
         <v>3.081817515427673</v>
@@ -1065,10 +1065,10 @@
         <v>0.04038502923700002</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004038513495595653</v>
+        <v>0.05048040274322935</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05047845221523429</v>
+        <v>1.07030705865079</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
